--- a/tabular/lenti-reference-data.xlsx
+++ b/tabular/lenti-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F834129-6B46-2244-93D8-B56D9886D0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C124ABC0-0789-964E-80BC-0010829E0A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13760" yWindow="3720" windowWidth="27240" windowHeight="16440" xr2:uid="{42735871-A8C7-D842-BA39-4089F1652FC4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="231">
   <si>
     <t>Isolate</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>Human immunodeficiency virus 1 (Outlier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIV-1O </t>
   </si>
   <si>
     <t>AY169816</t>
@@ -1175,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A96F8-87E5-2E44-B73D-ACDE15C469C7}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A44" sqref="A41:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,31 +1187,31 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -1231,13 +1228,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>145</v>
@@ -1253,10 +1250,10 @@
         <v>142</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1299,13 +1296,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>145</v>
@@ -1321,10 +1318,10 @@
         <v>142</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1332,13 +1329,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>145</v>
@@ -1354,10 +1351,10 @@
         <v>142</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1365,13 +1362,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>145</v>
@@ -1387,10 +1384,10 @@
         <v>142</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1398,13 +1395,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>145</v>
@@ -1420,10 +1417,10 @@
         <v>142</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
@@ -1434,10 +1431,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>145</v>
@@ -1469,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>25</v>
@@ -1510,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -1628,7 +1625,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>144</v>
@@ -1663,7 +1660,7 @@
         <v>145</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>144</v>
@@ -1698,7 +1695,7 @@
         <v>145</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>144</v>
@@ -2667,7 +2664,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
@@ -2746,13 +2743,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>187</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>145</v>
